--- a/ddl/Excel Schema-v1.0.xlsx
+++ b/ddl/Excel Schema-v1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish\Documents\GitHub\ecommerce-flask-python\ddl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish\Documents\DB projects\ecommerce-flask-python\ddl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BD9AE5-A93D-4DB8-A554-E8B172A1365D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ED25CD-2EE5-444B-9EDB-35A3B53C9F2B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{E8E8A9C1-82B2-4425-9CF7-EDF7551B331A}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="123">
-  <si>
-    <t>Users</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="122">
   <si>
     <t>not null</t>
   </si>
@@ -59,12 +56,6 @@
     <t>default true</t>
   </si>
   <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>Roles</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -80,9 +71,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>User_Roles</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -98,18 +86,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>constraint pk_User_Roles primary key (user_id,role_id)</t>
-  </si>
-  <si>
-    <t>constraint pk_Roles primary key (id)</t>
-  </si>
-  <si>
-    <t>constraint pk_Users primary key (id)</t>
-  </si>
-  <si>
-    <t>Products</t>
-  </si>
-  <si>
     <t>SKU</t>
   </si>
   <si>
@@ -158,18 +134,9 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>Sales_Transactions</t>
-  </si>
-  <si>
-    <t>Product_Categories</t>
-  </si>
-  <si>
     <t>category_id</t>
   </si>
   <si>
-    <t>constraint pk_Product_Categories primary key (category_id,product_id)</t>
-  </si>
-  <si>
     <t>order_id</t>
   </si>
   <si>
@@ -197,15 +164,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>Orders</t>
-  </si>
-  <si>
-    <t>Ordered_Products</t>
-  </si>
-  <si>
     <t>sku</t>
   </si>
   <si>
@@ -239,21 +197,12 @@
     <t>Admin or user</t>
   </si>
   <si>
-    <t>User id from Users table</t>
-  </si>
-  <si>
-    <t>Role id from Roles table</t>
-  </si>
-  <si>
     <t>This is an associative entity</t>
   </si>
   <si>
     <t>Role creation date. Can be null or not</t>
   </si>
   <si>
-    <t>categories--&gt; mobile/laptopts etc</t>
-  </si>
-  <si>
     <t>Product id</t>
   </si>
   <si>
@@ -305,9 +254,6 @@
     <t>sale id</t>
   </si>
   <si>
-    <t>order number from orders table</t>
-  </si>
-  <si>
     <t>date of payment</t>
   </si>
   <si>
@@ -341,48 +287,15 @@
     <t>prod_id</t>
   </si>
   <si>
-    <t>constraint fk_User_Roles_1 FOREIGN KEY (user_id) REFERENCES Users (user_id)</t>
-  </si>
-  <si>
-    <t>constraint fk_User_Roles_2 FOREIGN KEY (role_id) REFERENCES Roles (role_id)</t>
-  </si>
-  <si>
-    <t>constraint pk_Categories primary key (categ_id)</t>
-  </si>
-  <si>
-    <t>constraint pk_Products primary key (prod_id)</t>
-  </si>
-  <si>
-    <t>constraint fk_Product_Categories_1 FOREIGN KEY (category_id) REFERENCES Categories (categ_id)</t>
-  </si>
-  <si>
-    <t>constraint fk_Product_Categories_2 FOREIGN KEY (product_id) REFERENCES Products (prod_id)</t>
-  </si>
-  <si>
-    <t>constraint pk_Orders primary key (order_id)</t>
-  </si>
-  <si>
-    <t>constraint fk_Orders_1 FOREIGN KEY (user_id) REFERENCES Users (user_id)</t>
-  </si>
-  <si>
     <t>trans_id</t>
   </si>
   <si>
     <t>constraint pk_Sales_Tranactions primary key (trans_id)</t>
   </si>
   <si>
-    <t>constraint fk_Sales_Transactions_1 FOREIGN KEY (order_id) REFERENCES Orders (order_id)</t>
-  </si>
-  <si>
-    <t>constraint fk_Ordered_Products_1 FOREIGN KEY (order_id) REFERENCES Orders (order_id)</t>
-  </si>
-  <si>
     <t>ord_prod_id</t>
   </si>
   <si>
-    <t>constraint pk_Ordered_Products primary key (ord_prod_id</t>
-  </si>
-  <si>
     <t>Product_Ratings</t>
   </si>
   <si>
@@ -399,6 +312,90 @@
   </si>
   <si>
     <t>default 0/5</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>constraint pk_User primary key (id)</t>
+  </si>
+  <si>
+    <t>User id from User table</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>constraint pk_Role primary key (id)</t>
+  </si>
+  <si>
+    <t>User_Role</t>
+  </si>
+  <si>
+    <t>Role id from Role table</t>
+  </si>
+  <si>
+    <t>constraint pk_User_Role primary key (user_id,role_id)</t>
+  </si>
+  <si>
+    <t>constraint fk_User_Role_1 FOREIGN KEY (user_id) REFERENCES User (user_id)</t>
+  </si>
+  <si>
+    <t>constraint fk_User_Role_2 FOREIGN KEY (role_id) REFERENCES Role (role_id)</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Category--&gt; mobile/laptopts etc</t>
+  </si>
+  <si>
+    <t>constraint pk_Category primary key (categ_id)</t>
+  </si>
+  <si>
+    <t>Product_Category</t>
+  </si>
+  <si>
+    <t>constraint pk_Product_Category primary key (category_id,product_id)</t>
+  </si>
+  <si>
+    <t>constraint fk_Product_Category_1 FOREIGN KEY (category_id) REFERENCES Category (categ_id)</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>constraint pk_Product primary key (prod_id)</t>
+  </si>
+  <si>
+    <t>constraint fk_Product_Category_2 FOREIGN KEY (product_id) REFERENCES Product (prod_id)</t>
+  </si>
+  <si>
+    <t>Ordered_Product</t>
+  </si>
+  <si>
+    <t>constraint pk_Ordered_Product primary key (ord_prod_id</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>constraint pk_Order primary key (order_id)</t>
+  </si>
+  <si>
+    <t>constraint fk_Order_1 FOREIGN KEY (user_id) REFERENCES User (user_id)</t>
+  </si>
+  <si>
+    <t>order number from Order table</t>
+  </si>
+  <si>
+    <t>constraint fk_Ordered_Product_1 FOREIGN KEY (order_id) REFERENCES Order (order_id)</t>
+  </si>
+  <si>
+    <t>Sales_Transaction</t>
+  </si>
+  <si>
+    <t>constraint fk_Sales_Transaction_1 FOREIGN KEY (order_id) REFERENCES Order (order_id)</t>
   </si>
 </sst>
 </file>
@@ -813,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F6378E-A416-4163-9172-F77CB646044F}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,247 +825,247 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1076,186 +1073,186 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1263,67 +1260,67 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1331,287 +1328,287 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
